--- a/MySQLPerformance.xlsx
+++ b/MySQLPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muchtar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A3C706-B259-466D-B0F0-F7CAD9F5A07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20344F16-1B6F-42C1-8E14-00D19E0DEF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Dauer/Durchlauf</t>
   </si>
@@ -64,14 +64,18 @@
   </si>
   <si>
     <t>Request Object size in Bytes</t>
+  </si>
+  <si>
+    <t>Average(only Object insert, without connection)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -102,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -420,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,17 +442,17 @@
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -475,8 +480,11 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -506,8 +514,11 @@
       <c r="K4" s="2">
         <v>456</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>1.78229999840259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -537,8 +548,11 @@
       <c r="K5" s="2">
         <v>456.82</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <v>1.77320292010903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1000</v>
       </c>
@@ -568,8 +582,11 @@
       <c r="K6" s="2">
         <v>459.75799999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="3">
+        <v>1.77393699408695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -578,22 +595,22 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -622,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -653,7 +670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>100</v>
       </c>
